--- a/Examples/output/data_schema_properties_2017_sample.xlsx
+++ b/Examples/output/data_schema_properties_2017_sample.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="125">
   <si>
     <t>column</t>
   </si>
@@ -59,7 +59,7 @@
     <t>numeric</t>
   </si>
   <si>
-    <t>[10892674, 11837464, 11762313, 11243864, 11608655]</t>
+    <t>[17305825, 17162450, 13089836, 11775104, 10743512]</t>
   </si>
   <si>
     <t>airconditioningtypeid</t>
@@ -71,115 +71,121 @@
     <t>architecturalstyletypeid</t>
   </si>
   <si>
+    <t>[7.0]</t>
+  </si>
+  <si>
     <t>basementsqft</t>
   </si>
   <si>
-    <t>[555.0]</t>
+    <t>[516.0, 600.0, 216.0, 224.0]</t>
   </si>
   <si>
     <t>bathroomcnt</t>
   </si>
   <si>
-    <t>[1.0, 1.0, 1.5, 1.0, 2.0]</t>
+    <t>[3.0, 4.0, 1.0, 3.0, 2.0]</t>
   </si>
   <si>
     <t>bedroomcnt</t>
   </si>
   <si>
-    <t>[8.0, 5.0, 3.0, 4.0, 3.0]</t>
+    <t>[3.0, 4.0, 4.0, 0.0, 4.0]</t>
   </si>
   <si>
     <t>buildingclasstypeid</t>
   </si>
   <si>
-    <t>[3.0, 4.0, 4.0, 4.0, 4.0]</t>
+    <t>[4.0, 4.0, 4.0, 4.0, 4.0]</t>
   </si>
   <si>
     <t>buildingqualitytypeid</t>
   </si>
   <si>
-    <t>[6.0, 4.0, 8.0, 4.0, 6.0]</t>
+    <t>[6.0, 8.0, 6.0, 6.0, 4.0]</t>
   </si>
   <si>
     <t>calculatedbathnbr</t>
   </si>
   <si>
-    <t>[2.0, 2.0, 1.0, 4.0, 1.0]</t>
+    <t>[1.0, 2.5, 4.0, 2.0, 2.0]</t>
   </si>
   <si>
     <t>decktypeid</t>
   </si>
   <si>
-    <t>[66.0, 66.0, 66.0]</t>
+    <t>[66.0, 66.0, 66.0, 66.0, 66.0]</t>
   </si>
   <si>
     <t>finishedfloor1squarefeet</t>
   </si>
   <si>
-    <t>[1719.0, 1110.0, 1308.0, 3027.0, 1650.0]</t>
+    <t>[1362.0, 1260.0, 460.0, 871.0, 2891.0]</t>
   </si>
   <si>
     <t>calculatedfinishedsquarefeet</t>
   </si>
   <si>
-    <t>[1370.0, 1579.0, 3073.0, 1352.0, 848.0]</t>
+    <t>[1403.0, 1348.0, 1926.0, 4970.0, 1064.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet12</t>
   </si>
   <si>
-    <t>[1308.0, 1884.0, 1382.0, 435.0, 2204.0]</t>
+    <t>[2623.0, 1504.0, 1403.0, 1065.0, 1612.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet13</t>
   </si>
   <si>
-    <t>[1612.0, 1344.0, 1920.0, 660.0]</t>
+    <t>[520.0, 1200.0, 1368.0, 1368.0, 1368.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet15</t>
   </si>
   <si>
-    <t>[1898.0, 2010.0, 1150.0, 1936.0, 1512.0]</t>
+    <t>[2745.0, 2284.0, 2266.0, 1708.0, 2136.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet50</t>
   </si>
   <si>
-    <t>[1389.0, 1306.0, 827.0, 1245.0, 825.0]</t>
+    <t>[1204.0, 1362.0, 1026.0, 1630.0, 996.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet6</t>
   </si>
   <si>
-    <t>[2003.0, 754.0, 2100.0]</t>
+    <t>[2522.0, 1863.0, 1190.0]</t>
   </si>
   <si>
     <t>fips</t>
   </si>
   <si>
-    <t>[6037, 6037, 6059, 6059, 6037]</t>
+    <t>[6037, 6037, 6037, 6037, 6111]</t>
   </si>
   <si>
     <t>fireplacecnt</t>
   </si>
   <si>
+    <t>[1.0, 1.0, 2.0, 1.0, 1.0]</t>
+  </si>
+  <si>
     <t>fullbathcnt</t>
   </si>
   <si>
-    <t>[2.0, 4.0, 3.0, 1.0, 2.0]</t>
+    <t>[4.0, 2.0, 3.0, 2.0, 2.0]</t>
   </si>
   <si>
     <t>garagecarcnt</t>
   </si>
   <si>
-    <t>[2.0, 1.0, 2.0, 2.0, 2.0]</t>
+    <t>[2.0, 1.0, 1.0, 2.0, 2.0]</t>
   </si>
   <si>
     <t>garagetotalsqft</t>
   </si>
   <si>
-    <t>[528.0, 483.0, 399.0, 483.0, 342.0]</t>
+    <t>[420.0, 425.0, 0.0, 409.0, 440.0]</t>
   </si>
   <si>
     <t>hashottuborspa</t>
@@ -194,25 +200,25 @@
     <t>heatingorsystemtypeid</t>
   </si>
   <si>
-    <t>[7.0, 7.0, 2.0, 7.0, 2.0]</t>
+    <t>[2.0, 2.0, 2.0, 7.0, 2.0]</t>
   </si>
   <si>
     <t>latitude</t>
   </si>
   <si>
-    <t>[34213840, 34082301, 34217005, 33762762, 34261845]</t>
+    <t>[33738109, 34582871, 34137168, 34008087, 33771396]</t>
   </si>
   <si>
     <t>longitude</t>
   </si>
   <si>
-    <t>[-118187111, -118124691, -118422668, -118429146, -118388000]</t>
+    <t>[-118901035, -118567127, -118087839, -118277469, -117739091]</t>
   </si>
   <si>
     <t>lotsizesquarefeet</t>
   </si>
   <si>
-    <t>[5301.0, 6777.0, 6825.0, 3244.0, 5628.0]</t>
+    <t>[105203.0, 3743.0, 465072.0, 7499.0, 4855.0]</t>
   </si>
   <si>
     <t>poolcnt</t>
@@ -221,7 +227,7 @@
     <t>poolsizesum</t>
   </si>
   <si>
-    <t>[420.0, 720.0, 450.0, 420.0, 450.0]</t>
+    <t>[800.0, 503.0, 360.0, 800.0, 376.0]</t>
   </si>
   <si>
     <t>pooltypeid10</t>
@@ -239,61 +245,61 @@
     <t>propertycountylandusecode</t>
   </si>
   <si>
-    <t>['0100', '0100', '1111', '010C', '0100']</t>
+    <t>['0100', '0100', '0100', '1', '1111']</t>
   </si>
   <si>
     <t>propertylandusetypeid</t>
   </si>
   <si>
-    <t>[261, 247, 266, 261, 261]</t>
+    <t>[261, 261, 261, 261, 263]</t>
   </si>
   <si>
     <t>propertyzoningdesc</t>
   </si>
   <si>
-    <t>['ARR1*', 'WDR4*', 'SCUR3', 'LAC2', 'LAR1']</t>
+    <t>['WCR114400*', 'BUR1YY', 'MPR2*', 'LAR1', 'LVSP812*']</t>
   </si>
   <si>
     <t>rawcensustractandblock</t>
   </si>
   <si>
-    <t>[60372182.101002, 60375515.01100501, 60374045.03101601, 60376506.031009994, 60376003.022011]</t>
+    <t>[60373012.061001, 60375040.021006, 60376508.00303101, 60371994.00300401, 60371951.003]</t>
   </si>
   <si>
     <t>regionidcity</t>
   </si>
   <si>
-    <t>[47019.0, 27110.0, 51617.0, 50677.0, 12447.0]</t>
+    <t>[12447.0, 10774.0, 54311.0, 54722.0, 12447.0]</t>
   </si>
   <si>
     <t>regionidcounty</t>
   </si>
   <si>
-    <t>[2061, 3101, 3101, 3101, 3101]</t>
+    <t>[3101, 3101, 3101, 3101, 3101]</t>
   </si>
   <si>
     <t>regionidneighborhood</t>
   </si>
   <si>
-    <t>[268473.0, 33183.0, 416967.0, 273400.0, 274293.0]</t>
+    <t>[275428.0, 30731.0, 27080.0, 273825.0, 276293.0]</t>
   </si>
   <si>
     <t>regionidzip</t>
   </si>
   <si>
-    <t>[96018.0, 97116.0, 96384.0, 96351.0, 96525.0]</t>
+    <t>[96163.0, 96273.0, 96171.0, 96204.0, 96125.0]</t>
   </si>
   <si>
     <t>roomcnt</t>
   </si>
   <si>
-    <t>[0.0, 0.0, 0.0, 7.0, 0.0]</t>
+    <t>[7.0, 0.0, 0.0, 0.0, 0.0]</t>
   </si>
   <si>
     <t>storytypeid</t>
   </si>
   <si>
-    <t>[7.0]</t>
+    <t>[7.0, 7.0, 7.0, 7.0]</t>
   </si>
   <si>
     <t>threequarterbathnbr</t>
@@ -302,34 +308,34 @@
     <t>typeconstructiontypeid</t>
   </si>
   <si>
+    <t>[6.0]</t>
+  </si>
+  <si>
     <t>unitcnt</t>
   </si>
   <si>
-    <t>[1.0, 1.0, 2.0, 1.0, 1.0]</t>
-  </si>
-  <si>
     <t>yardbuildingsqft17</t>
   </si>
   <si>
-    <t>[138.0, 150.0, 405.0, 138.0, 1534.0]</t>
+    <t>[160.0, 160.0, 950.0, 72.0, 84.0]</t>
   </si>
   <si>
     <t>yardbuildingsqft26</t>
   </si>
   <si>
-    <t>[96.0, 560.0]</t>
+    <t>[135.0]</t>
   </si>
   <si>
     <t>yearbuilt</t>
   </si>
   <si>
-    <t>[1930.0, 1951.0, 1948.0, 1925.0, 1977.0]</t>
+    <t>[1971.0, 1951.0, 1965.0, 1977.0, 1957.0]</t>
   </si>
   <si>
     <t>numberofstories</t>
   </si>
   <si>
-    <t>[2.0, 2.0, 1.0, 2.0, 1.0]</t>
+    <t>[2.0, 1.0, 2.0, 1.0, 1.0]</t>
   </si>
   <si>
     <t>fireplaceflag</t>
@@ -341,13 +347,13 @@
     <t>structuretaxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[294422.0, 53554.0, 216184.0, 243342.0, 685653.0]</t>
+    <t>[57538.0, 95978.0, 278052.0, 54357.0, 53005.0]</t>
   </si>
   <si>
     <t>taxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[57881.0, 939984.0, 300252.0, 388000.0, 1755366.0]</t>
+    <t>[450888.0, 89662.0, 43307.0, 39289.0, 312675.0]</t>
   </si>
   <si>
     <t>assessmentyear</t>
@@ -359,13 +365,13 @@
     <t>landtaxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[156611.0, 125801.0, 353245.0, 308000.0, 43056.0]</t>
+    <t>[220219.0, 30444.0, 31397.0, 158343.0, 893420.0]</t>
   </si>
   <si>
     <t>taxamount</t>
   </si>
   <si>
-    <t>[50.72, 7275.96, 2672.02, 5197.39, 4721.31]</t>
+    <t>[1144.93, 3905.03, 5015.49, 5164.58, 6585.98]</t>
   </si>
   <si>
     <t>taxdelinquencyflag</t>
@@ -377,13 +383,13 @@
     <t>taxdelinquencyyear</t>
   </si>
   <si>
-    <t>[15.0, 15.0, 11.0, 9.0, 9.0]</t>
+    <t>[15.0, 15.0, 15.0, 14.0, 15.0]</t>
   </si>
   <si>
     <t>censustractandblock</t>
   </si>
   <si>
-    <t>[60375523013004.0, 60372111203002.0, 60590891022004.0, 60376204004019.0, 60374027024001.0]</t>
+    <t>[60375409012012.0, 60375302022016.0, 60375512024002.0, 61110003022083.0, 60375767001009.0]</t>
   </si>
 </sst>
 </file>
@@ -830,8 +836,8 @@
     <col customWidth="1" max="6" min="6" width="80"/>
     <col customWidth="1" max="7" min="7" width="21"/>
     <col customWidth="1" max="8" min="8" width="31.5"/>
-    <col customWidth="1" max="9" min="9" width="24"/>
-    <col customWidth="1" max="10" min="10" width="24"/>
+    <col customWidth="1" max="9" min="9" width="25.5"/>
+    <col customWidth="1" max="10" min="10" width="27"/>
     <col customWidth="1" max="11" min="11" width="24"/>
     <col customWidth="1" max="12" min="12" width="28.5"/>
   </cols>
@@ -901,16 +907,16 @@
         <v>1</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>10718347</v>
+        <v>10718048</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>12130122</v>
+        <v>12193625.5</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>167689347</v>
+        <v>168181147</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>9518868.993979461</v>
+        <v>9922642.390427873</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="3" spans="1:12">
@@ -936,7 +942,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.01254</v>
+        <v>0.0129</v>
       </c>
       <c r="I3" s="4" t="n">
         <v>1</v>
@@ -948,7 +954,7 @@
         <v>13</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.437474137271122</v>
+        <v>1.480627591434163</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="4" spans="1:12">
@@ -967,34 +973,34 @@
       <c r="E4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="4" t="n">
-        <v/>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="G4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="L4" s="4" t="n">
         <v>0</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v/>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v/>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v/>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v/>
       </c>
     </row>
     <row customHeight="1" ht="20" r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>13</v>
@@ -1006,33 +1012,33 @@
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>555</v>
+        <v>216</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>555</v>
+        <v>370</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>555</v>
+        <v>600</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0</v>
+        <v>171.612936575306</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>13</v>
@@ -1044,13 +1050,13 @@
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>0.0156</v>
+        <v>0.01468</v>
       </c>
       <c r="I6" s="4" t="n">
         <v>0</v>
@@ -1059,18 +1065,18 @@
         <v>2</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.201022556216309</v>
+        <v>1.214533462980443</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>13</v>
@@ -1082,13 +1088,13 @@
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>0.01101</v>
+        <v>0.01009</v>
       </c>
       <c r="I7" s="4" t="n">
         <v>0</v>
@@ -1100,15 +1106,15 @@
         <v>12</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>1.433671107345299</v>
+        <v>1.380036094181599</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>13</v>
@@ -1120,13 +1126,13 @@
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G8" s="4" t="n">
         <v>2</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>0.33333</v>
+        <v>0.28571</v>
       </c>
       <c r="I8" s="4" t="n">
         <v>3</v>
@@ -1138,15 +1144,15 @@
         <v>4</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>0.3726779962499649</v>
+        <v>0.4517539514526256</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>13</v>
@@ -1158,33 +1164,33 @@
         <v>1</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>0.00984</v>
+        <v>0.01364</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9" s="4" t="n">
         <v>6</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>1.753413549655228</v>
+        <v>1.68425460804201</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>13</v>
@@ -1196,13 +1202,13 @@
         <v>1</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>0.01514</v>
+        <v>0.0144</v>
       </c>
       <c r="I10" s="4" t="n">
         <v>1</v>
@@ -1211,18 +1217,18 @@
         <v>2</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>1.15199082529525</v>
+        <v>1.144514255752493</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>13</v>
@@ -1234,13 +1240,13 @@
         <v>1</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H11" s="4" t="n">
-        <v>0.33333</v>
+        <v>0.1</v>
       </c>
       <c r="I11" s="4" t="n">
         <v>66</v>
@@ -1257,10 +1263,10 @@
     </row>
     <row customHeight="1" ht="20" r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>13</v>
@@ -1272,33 +1278,33 @@
         <v>1</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H12" s="4" t="n">
-        <v>0.94737</v>
+        <v>0.95294</v>
       </c>
       <c r="I12" s="4" t="n">
-        <v>510</v>
+        <v>460</v>
       </c>
       <c r="J12" s="4" t="n">
-        <v>1262</v>
+        <v>1314</v>
       </c>
       <c r="K12" s="4" t="n">
-        <v>3389</v>
+        <v>2967</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>591.8252090623696</v>
+        <v>469.0843189341296</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>13</v>
@@ -1310,33 +1316,33 @@
         <v>1</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>853</v>
+        <v>828</v>
       </c>
       <c r="H13" s="4" t="n">
-        <v>0.78618</v>
+        <v>0.7688</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>387</v>
+        <v>520</v>
       </c>
       <c r="J13" s="4" t="n">
-        <v>1544</v>
+        <v>1573</v>
       </c>
       <c r="K13" s="4" t="n">
-        <v>20089</v>
+        <v>28667</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>1252.814611551266</v>
+        <v>1360.613362412417</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>13</v>
@@ -1348,33 +1354,33 @@
         <v>1</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="H14" s="4" t="n">
-        <v>0.79439</v>
+        <v>0.77641</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>387</v>
+        <v>592</v>
       </c>
       <c r="J14" s="4" t="n">
-        <v>1490</v>
+        <v>1527</v>
       </c>
       <c r="K14" s="4" t="n">
-        <v>13875</v>
+        <v>11810</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>1057.865755847877</v>
+        <v>991.5064930224713</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="15" spans="1:12">
       <c r="A15" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1386,33 +1392,33 @@
         <v>1</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H15" s="4" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>660</v>
+        <v>520</v>
       </c>
       <c r="J15" s="4" t="n">
-        <v>1478</v>
+        <v>1176</v>
       </c>
       <c r="K15" s="4" t="n">
-        <v>1920</v>
+        <v>1440</v>
       </c>
       <c r="L15" s="4" t="n">
-        <v>465.0419335930901</v>
+        <v>307.0598475867531</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="16" spans="1:12">
       <c r="A16" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>13</v>
@@ -1424,33 +1430,33 @@
         <v>1</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="H16" s="4" t="n">
-        <v>0.9739100000000001</v>
+        <v>0.9890099999999999</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>776</v>
+        <v>1043</v>
       </c>
       <c r="J16" s="4" t="n">
-        <v>2224</v>
+        <v>2284</v>
       </c>
       <c r="K16" s="4" t="n">
-        <v>20089</v>
+        <v>28667</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>2119.129485646787</v>
+        <v>3165.00590004206</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="17" spans="1:12">
       <c r="A17" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>13</v>
@@ -1462,33 +1468,33 @@
         <v>1</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>0.94737</v>
+        <v>0.95294</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>510</v>
+        <v>460</v>
       </c>
       <c r="J17" s="4" t="n">
-        <v>1262</v>
+        <v>1314</v>
       </c>
       <c r="K17" s="4" t="n">
-        <v>6390</v>
+        <v>2967</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>801.3056269340887</v>
+        <v>469.0843189341296</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="18" spans="1:12">
       <c r="A18" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>13</v>
@@ -1500,7 +1506,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G18" s="4" t="n">
         <v>3</v>
@@ -1509,24 +1515,24 @@
         <v>1</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>754</v>
+        <v>1190</v>
       </c>
       <c r="J18" s="4" t="n">
-        <v>2003</v>
+        <v>1863</v>
       </c>
       <c r="K18" s="4" t="n">
-        <v>2100</v>
+        <v>2522</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>612.9279457380505</v>
+        <v>543.7967349009084</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="19" spans="1:12">
       <c r="A19" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>13</v>
@@ -1538,7 +1544,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G19" s="4" t="n">
         <v>3</v>
@@ -1556,15 +1562,15 @@
         <v>6111</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>20.01285202752386</v>
+        <v>21.40374829417307</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="20" spans="1:12">
       <c r="A20" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>13</v>
@@ -1576,13 +1582,13 @@
         <v>1</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G20" s="4" t="n">
         <v>3</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>0.04688</v>
+        <v>0.03659</v>
       </c>
       <c r="I20" s="4" t="n">
         <v>1</v>
@@ -1594,15 +1600,15 @@
         <v>3</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>0.4281934251888975</v>
+        <v>0.3947905867375279</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="21" spans="1:12">
       <c r="A21" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>13</v>
@@ -1614,13 +1620,13 @@
         <v>1</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G21" s="4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H21" s="4" t="n">
-        <v>0.01041</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="I21" s="4" t="n">
         <v>1</v>
@@ -1629,18 +1635,18 @@
         <v>2</v>
       </c>
       <c r="K21" s="4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>1.148215585988902</v>
+        <v>1.138495540759966</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="22" spans="1:12">
       <c r="A22" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>13</v>
@@ -1652,13 +1658,13 @@
         <v>1</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G22" s="4" t="n">
         <v>5</v>
       </c>
       <c r="H22" s="4" t="n">
-        <v>0.03906</v>
+        <v>0.03448</v>
       </c>
       <c r="I22" s="4" t="n">
         <v>0</v>
@@ -1667,18 +1673,18 @@
         <v>2</v>
       </c>
       <c r="K22" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>0.533485645161845</v>
+        <v>0.5208608989930815</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="23" spans="1:12">
       <c r="A23" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>13</v>
@@ -1690,45 +1696,45 @@
         <v>1</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G23" s="4" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H23" s="4" t="n">
-        <v>0.53125</v>
+        <v>0.49655</v>
       </c>
       <c r="I23" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J23" s="4" t="n">
-        <v>438.5</v>
+        <v>440</v>
       </c>
       <c r="K23" s="4" t="n">
-        <v>1057</v>
+        <v>1453</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>211.1018335563653</v>
+        <v>190.5384742107952</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="24" spans="1:12">
       <c r="A24" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E24" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G24" s="4" t="n">
         <v>1</v>
@@ -1751,10 +1757,10 @@
     </row>
     <row customHeight="1" ht="20" r="25" spans="1:12">
       <c r="A25" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>13</v>
@@ -1766,13 +1772,13 @@
         <v>1</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G25" s="4" t="n">
         <v>3</v>
       </c>
       <c r="H25" s="4" t="n">
-        <v>0.00357</v>
+        <v>0.00367</v>
       </c>
       <c r="I25" s="4" t="n">
         <v>2</v>
@@ -1784,15 +1790,15 @@
         <v>7</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>2.433417760603772</v>
+        <v>2.395004058492062</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="26" spans="1:12">
       <c r="A26" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>13</v>
@@ -1804,33 +1810,33 @@
         <v>1</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G26" s="4" t="n">
-        <v>1084</v>
+        <v>1089</v>
       </c>
       <c r="H26" s="4" t="n">
-        <v>0.9945000000000001</v>
+        <v>0.99908</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>33340902</v>
+        <v>33344167</v>
       </c>
       <c r="J26" s="4" t="n">
-        <v>34061011</v>
+        <v>34066902.5</v>
       </c>
       <c r="K26" s="4" t="n">
-        <v>34717068</v>
+        <v>34786862</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>205005.3608979582</v>
+        <v>205657.2464403578</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="27" spans="1:12">
       <c r="A27" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>13</v>
@@ -1842,33 +1848,33 @@
         <v>1</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G27" s="4" t="n">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H27" s="4" t="n">
-        <v>0.99083</v>
+        <v>0.99174</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>-119294355</v>
+        <v>-119297939</v>
       </c>
       <c r="J27" s="4" t="n">
-        <v>-118270463.5</v>
+        <v>-118272531.5</v>
       </c>
       <c r="K27" s="4" t="n">
         <v>-117597790</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>293736.3978443665</v>
+        <v>312751.9657847767</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="28" spans="1:12">
       <c r="A28" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>13</v>
@@ -1880,33 +1886,33 @@
         <v>1</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G28" s="4" t="n">
-        <v>939</v>
+        <v>953</v>
       </c>
       <c r="H28" s="4" t="n">
-        <v>0.88836</v>
+        <v>0.91371</v>
       </c>
       <c r="I28" s="4" t="n">
-        <v>435</v>
+        <v>1169</v>
       </c>
       <c r="J28" s="4" t="n">
-        <v>6895</v>
+        <v>7154</v>
       </c>
       <c r="K28" s="4" t="n">
-        <v>1904165</v>
+        <v>978900</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>114942.6178348937</v>
+        <v>79408.98593816235</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="29" spans="1:12">
       <c r="A29" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>13</v>
@@ -1924,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="4" t="n">
-        <v>0.0051</v>
+        <v>0.00495</v>
       </c>
       <c r="I29" s="4" t="n">
         <v>1</v>
@@ -1941,10 +1947,10 @@
     </row>
     <row customHeight="1" ht="20" r="30" spans="1:12">
       <c r="A30" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>13</v>
@@ -1956,33 +1962,33 @@
         <v>1</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G30" s="4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H30" s="4" t="n">
-        <v>0.84615</v>
+        <v>0.90909</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>420</v>
+        <v>360</v>
       </c>
       <c r="J30" s="4" t="n">
-        <v>600</v>
+        <v>578</v>
       </c>
       <c r="K30" s="4" t="n">
-        <v>903</v>
+        <v>800</v>
       </c>
       <c r="L30" s="4" t="n">
-        <v>158.0742466552389</v>
+        <v>151.3695603536355</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="31" spans="1:12">
       <c r="A31" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>13</v>
@@ -1994,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G31" s="4" t="n">
         <v>1</v>
@@ -2017,10 +2023,10 @@
     </row>
     <row customHeight="1" ht="20" r="32" spans="1:12">
       <c r="A32" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>13</v>
@@ -2032,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G32" s="4" t="n">
         <v>1</v>
@@ -2055,10 +2061,10 @@
     </row>
     <row customHeight="1" ht="20" r="33" spans="1:12">
       <c r="A33" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>13</v>
@@ -2076,7 +2082,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="4" t="n">
-        <v>0.00513</v>
+        <v>0.00498</v>
       </c>
       <c r="I33" s="4" t="n">
         <v>1</v>
@@ -2093,28 +2099,28 @@
     </row>
     <row customHeight="1" ht="20" r="34" spans="1:12">
       <c r="A34" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E34" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G34" s="4" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H34" s="4" t="n">
-        <v>0.03211</v>
+        <v>0.02936</v>
       </c>
       <c r="I34" s="4" t="n">
         <v/>
@@ -2131,10 +2137,10 @@
     </row>
     <row customHeight="1" ht="20" r="35" spans="1:12">
       <c r="A35" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>13</v>
@@ -2146,7 +2152,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G35" s="4" t="n">
         <v>11</v>
@@ -2164,33 +2170,33 @@
         <v>269</v>
       </c>
       <c r="L35" s="4" t="n">
-        <v>17.36051290910786</v>
+        <v>18.38872462041776</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="36" spans="1:12">
       <c r="A36" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E36" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G36" s="4" t="n">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H36" s="4" t="n">
-        <v>0.34722</v>
+        <v>0.35463</v>
       </c>
       <c r="I36" s="4" t="n">
         <v/>
@@ -2207,10 +2213,10 @@
     </row>
     <row customHeight="1" ht="20" r="37" spans="1:12">
       <c r="A37" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>13</v>
@@ -2222,33 +2228,33 @@
         <v>1</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G37" s="4" t="n">
-        <v>1077</v>
+        <v>1081</v>
       </c>
       <c r="H37" s="4" t="n">
-        <v>0.98807</v>
+        <v>0.99174</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>60371013.001</v>
+        <v>60371013.00400501</v>
       </c>
       <c r="J37" s="4" t="n">
-        <v>60374822.5130095</v>
+        <v>60375019.517009</v>
       </c>
       <c r="K37" s="4" t="n">
-        <v>61110088.001008</v>
+        <v>61110091.001004</v>
       </c>
       <c r="L37" s="4" t="n">
-        <v>198902.9624028998</v>
+        <v>212704.8487682301</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="38" spans="1:12">
       <c r="A38" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>13</v>
@@ -2260,13 +2266,13 @@
         <v>1</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>0.12082</v>
+        <v>0.11765</v>
       </c>
       <c r="I38" s="4" t="n">
         <v>3491</v>
@@ -2278,15 +2284,15 @@
         <v>396556</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>58292.02102039357</v>
+        <v>55427.5445891668</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="39" spans="1:12">
       <c r="A39" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>13</v>
@@ -2298,7 +2304,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G39" s="4" t="n">
         <v>3</v>
@@ -2316,15 +2322,15 @@
         <v>3101</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>476.8753009846154</v>
+        <v>509.9187494587495</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="40" spans="1:12">
       <c r="A40" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>13</v>
@@ -2336,33 +2342,33 @@
         <v>1</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>0.35</v>
+        <v>0.37678</v>
       </c>
       <c r="I40" s="4" t="n">
         <v>6952</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>118208</v>
+        <v>118920</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>764167</v>
+        <v>764147</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>172638.1504297397</v>
+        <v>177361.1162493011</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="41" spans="1:12">
       <c r="A41" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>13</v>
@@ -2374,33 +2380,33 @@
         <v>1</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>0.26912</v>
+        <v>0.27491</v>
       </c>
       <c r="I41" s="4" t="n">
         <v>95982</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>96289</v>
+        <v>96295.5</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>97344</v>
+        <v>399675</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>349.4221388931673</v>
+        <v>9214.689244855195</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="42" spans="1:12">
       <c r="A42" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>13</v>
@@ -2412,7 +2418,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G42" s="4" t="n">
         <v>9</v>
@@ -2427,18 +2433,18 @@
         <v>0</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>2.11916596927968</v>
+        <v>2.269517838571513</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="43" spans="1:12">
       <c r="A43" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>13</v>
@@ -2450,13 +2456,13 @@
         <v>1</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="I43" s="4" t="n">
         <v>7</v>
@@ -2473,10 +2479,10 @@
     </row>
     <row customHeight="1" ht="20" r="44" spans="1:12">
       <c r="A44" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>13</v>
@@ -2491,10 +2497,10 @@
         <v>16</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>0.04762</v>
+        <v>0.02439</v>
       </c>
       <c r="I44" s="4" t="n">
         <v>1</v>
@@ -2503,18 +2509,18 @@
         <v>1</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>0.21295885499998</v>
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="45" spans="1:12">
       <c r="A45" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>13</v>
@@ -2525,34 +2531,34 @@
       <c r="E45" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F45" s="4" t="n">
-        <v/>
+      <c r="F45" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="G45" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="J45" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="K45" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="L45" s="4" t="n">
         <v>0</v>
-      </c>
-      <c r="H45" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" s="4" t="n">
-        <v/>
-      </c>
-      <c r="J45" s="4" t="n">
-        <v/>
-      </c>
-      <c r="K45" s="4" t="n">
-        <v/>
-      </c>
-      <c r="L45" s="4" t="n">
-        <v/>
       </c>
     </row>
     <row customHeight="1" ht="20" r="46" spans="1:12">
       <c r="A46" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>13</v>
@@ -2564,13 +2570,13 @@
         <v>1</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="G46" s="4" t="n">
         <v>4</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>0.00429</v>
+        <v>0.00442</v>
       </c>
       <c r="I46" s="4" t="n">
         <v>1</v>
@@ -2582,15 +2588,15 @@
         <v>4</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>0.6076031617480151</v>
+        <v>0.5482698618497981</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="47" spans="1:12">
       <c r="A47" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>13</v>
@@ -2602,33 +2608,33 @@
         <v>1</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>0.8125</v>
+        <v>0.94595</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="J47" s="4" t="n">
         <v>240</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>1534</v>
+        <v>1672</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>277.1251339084025</v>
+        <v>315.8276267944325</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="48" spans="1:12">
       <c r="A48" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>13</v>
@@ -2640,33 +2646,33 @@
         <v>1</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>328</v>
+        <v>135</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>560</v>
+        <v>135</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>232</v>
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="49" spans="1:12">
       <c r="A49" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>13</v>
@@ -2678,33 +2684,33 @@
         <v>1</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>0.09686</v>
+        <v>0.1014</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="K49" s="4" t="n">
         <v>2015</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>22.99577355962113</v>
+        <v>22.82974204636863</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="50" spans="1:12">
       <c r="A50" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>13</v>
@@ -2716,13 +2722,13 @@
         <v>1</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>0.03053</v>
+        <v>0.02041</v>
       </c>
       <c r="I50" s="4" t="n">
         <v>1</v>
@@ -2734,27 +2740,27 @@
         <v>4</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>0.5571996210960202</v>
+        <v>0.5150338294081007</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="51" spans="1:12">
       <c r="A51" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E51" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G51" s="4" t="n">
         <v>1</v>
@@ -2777,10 +2783,10 @@
     </row>
     <row customHeight="1" ht="20" r="52" spans="1:12">
       <c r="A52" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>13</v>
@@ -2792,33 +2798,33 @@
         <v>1</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>1051</v>
+        <v>1037</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>0.98041</v>
+        <v>0.9728</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>2586</v>
+        <v>595</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>123074.5</v>
+        <v>118262.5</v>
       </c>
       <c r="K52" s="4" t="n">
-        <v>4547304</v>
+        <v>13315021</v>
       </c>
       <c r="L52" s="4" t="n">
-        <v>241194.7169045411</v>
+        <v>666825.2384074574</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="53" spans="1:12">
       <c r="A53" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>13</v>
@@ -2830,33 +2836,33 @@
         <v>1</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>0.98886</v>
+        <v>0.98788</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>9</v>
+        <v>1835</v>
       </c>
       <c r="J53" s="4" t="n">
-        <v>299857</v>
+        <v>294246</v>
       </c>
       <c r="K53" s="4" t="n">
-        <v>9094608</v>
+        <v>30166843</v>
       </c>
       <c r="L53" s="4" t="n">
-        <v>519722.332807507</v>
+        <v>1589178.734889396</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="54" spans="1:12">
       <c r="A54" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>13</v>
@@ -2868,16 +2874,16 @@
         <v>1</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>0.00092</v>
+        <v>0.00275</v>
       </c>
       <c r="I54" s="4" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="J54" s="4" t="n">
         <v>2016</v>
@@ -2886,15 +2892,15 @@
         <v>2016</v>
       </c>
       <c r="L54" s="4" t="n">
-        <v>0</v>
+        <v>0.09562432455629639</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="55" spans="1:12">
       <c r="A55" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>13</v>
@@ -2906,33 +2912,33 @@
         <v>1</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>1037</v>
+        <v>1027</v>
       </c>
       <c r="H55" s="4" t="n">
-        <v>0.96465</v>
+        <v>0.96523</v>
       </c>
       <c r="I55" s="4" t="n">
-        <v>9</v>
+        <v>1835</v>
       </c>
       <c r="J55" s="4" t="n">
-        <v>156866</v>
+        <v>157969</v>
       </c>
       <c r="K55" s="4" t="n">
-        <v>4547304</v>
+        <v>22101269</v>
       </c>
       <c r="L55" s="4" t="n">
-        <v>326575.3436879992</v>
+        <v>1030973.771263405</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="56" spans="1:12">
       <c r="A56" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>13</v>
@@ -2944,51 +2950,51 @@
         <v>1</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G56" s="4" t="n">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="H56" s="4" t="n">
-        <v>1</v>
+        <v>0.99908</v>
       </c>
       <c r="I56" s="4" t="n">
-        <v>50.72</v>
+        <v>34.1</v>
       </c>
       <c r="J56" s="4" t="n">
-        <v>3761.56</v>
+        <v>3746.09</v>
       </c>
       <c r="K56" s="4" t="n">
-        <v>102053.65</v>
+        <v>362406.91</v>
       </c>
       <c r="L56" s="4" t="n">
-        <v>5990.909783252486</v>
+        <v>19431.92533627634</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="57" spans="1:12">
       <c r="A57" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E57" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G57" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H57" s="4" t="n">
-        <v>0.05263</v>
+        <v>0.03704</v>
       </c>
       <c r="I57" s="4" t="n">
         <v/>
@@ -3005,10 +3011,10 @@
     </row>
     <row customHeight="1" ht="20" r="58" spans="1:12">
       <c r="A58" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>13</v>
@@ -3020,33 +3026,33 @@
         <v>1</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G58" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H58" s="4" t="n">
-        <v>0.36842</v>
+        <v>0.18519</v>
       </c>
       <c r="I58" s="4" t="n">
         <v>9</v>
       </c>
       <c r="J58" s="4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K58" s="4" t="n">
         <v>15</v>
       </c>
       <c r="L58" s="4" t="n">
-        <v>2.214282522943435</v>
+        <v>1.414213562373095</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="59" spans="1:12">
       <c r="A59" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>13</v>
@@ -3058,25 +3064,25 @@
         <v>1</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G59" s="4" t="n">
-        <v>1049</v>
+        <v>1040</v>
       </c>
       <c r="H59" s="4" t="n">
-        <v>0.9896200000000001</v>
+        <v>0.99237</v>
       </c>
       <c r="I59" s="4" t="n">
-        <v>60371013001000</v>
+        <v>60371013004005</v>
       </c>
       <c r="J59" s="4" t="n">
-        <v>60374819017525</v>
+        <v>60375019517009</v>
       </c>
       <c r="K59" s="4" t="n">
-        <v>61110088001008</v>
+        <v>61110091001004</v>
       </c>
       <c r="L59" s="4" t="n">
-        <v>199094902021.9297</v>
+        <v>213348512308.2365</v>
       </c>
     </row>
   </sheetData>
